--- a/biology/Zoologie/Hutte_animale/Hutte_animale.xlsx
+++ b/biology/Zoologie/Hutte_animale/Hutte_animale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs animaux sont ainsi capables de construire une ou plusieurs huttes à partir de branches, branchages dont les interstices sont plus ou moins colmatés par des agglutinements de terre ; c'est le cas du castor eurasien et du castor nord-américain ainsi que du rat musqué. L'entrée de ces huttes est toujours immergée. Il peut y avoir plusieurs entrées. Une cheminée d'aération non colmatée par de la terre est conservée pour l'aération des chambres sous-jacentes.
 Le Castor construit aussi parfois des terriers-hutte. 
@@ -512,12 +524,14 @@
           <t>Aspects écosystémiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une espèce capable de construire de telles huttes est dite espèce-ingénieur et facilitatrice, car : 
-ces huttes constituent un nouvel habitat pour de nombreuses espèces d'invertébrés, voire un support d'observation et/ou de nidification pour des oiseaux (canards, oies...)[2] ;
-les huttes construites en bois, végétaux et terre forment aussi un substrat pour des plantes qui ne peuvent pousser dans l'eau, enrichissant la biodiversité locale[3],[4] ;
-les matériaux non-immergés sont exposés à l'oxygène, ce qui va accélérer le travail de certains microbes et organismes décomposeurs, au profit des plantes qui pousseront sur cette nouvelle litière[5] et décomposeurs).</t>
+ces huttes constituent un nouvel habitat pour de nombreuses espèces d'invertébrés, voire un support d'observation et/ou de nidification pour des oiseaux (canards, oies...) ;
+les huttes construites en bois, végétaux et terre forment aussi un substrat pour des plantes qui ne peuvent pousser dans l'eau, enrichissant la biodiversité locale, ;
+les matériaux non-immergés sont exposés à l'oxygène, ce qui va accélérer le travail de certains microbes et organismes décomposeurs, au profit des plantes qui pousseront sur cette nouvelle litière et décomposeurs).</t>
         </is>
       </c>
     </row>
